--- a/thesis/excel/panduan_pick.xlsx
+++ b/thesis/excel/panduan_pick.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\yuliant.github.io\thesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B934D-5777-4259-83A5-C898CB89DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4746D8-E1F8-4861-8808-6F0FE6326AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A4B6EF2-D025-46FA-A715-73AD0D00F96D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t xml:space="preserve"> Pick</t>
   </si>
@@ -604,7 +605,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,4 +895,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29863D73-2C9D-400A-B818-2EC3920227F8}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>